--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-42920\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-6220\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>Case</t>
   </si>
@@ -131,30 +131,6 @@
     <t>Begin update dc_customer_info p set P.LOGIN_PASSWORD='$2a$10$fZ3EqVq2W9QWb2silU6sVuDUr.2XrXNSHjU98hOuQsCE/Dr1oN6cy' where P.CNIC='{customer_cnic}';COMMIT;END;</t>
   </si>
   <si>
-    <t>password_policy</t>
-  </si>
-  <si>
-    <t>password_policy1</t>
-  </si>
-  <si>
-    <t>password_policy2</t>
-  </si>
-  <si>
-    <t>password_policy3</t>
-  </si>
-  <si>
-    <t>Password Policy</t>
-  </si>
-  <si>
-    <t>As per HBL policy, your login password should contain the followings.</t>
-  </si>
-  <si>
-    <t>Should be between 8 and 15 characters with at least 1 alphabet and 1 numeric digit</t>
-  </si>
-  <si>
-    <t>Special characters allowed are ! @ # $ . &amp;</t>
-  </si>
-  <si>
     <t>select CUSTOMER_NAME from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
@@ -201,6 +177,57 @@
   </si>
   <si>
     <t>select P.IS_IVR_ENABLED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>customer_type</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>updated_on_query</t>
+  </si>
+  <si>
+    <t>created_on_query</t>
+  </si>
+  <si>
+    <t>PARAM_CHANNEL_ID_query</t>
+  </si>
+  <si>
+    <t>ENABLE_PSD_require_query</t>
+  </si>
+  <si>
+    <t>ENABLE_PSD_check_query</t>
+  </si>
+  <si>
+    <t>select P.updated_on from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.last_login from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.created_on from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>Select P.PARAM_CHANNEL_ID from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='ENABLE_PSD_BIOMETRIC'</t>
+  </si>
+  <si>
+    <t>Select Z.ENABLE_PSD from dc_customer_info Z where Z.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>password_policy_query</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_PSWD_POLICY_DESC'</t>
+  </si>
+  <si>
+    <t>Last_login_query</t>
   </si>
 </sst>
 </file>
@@ -530,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,36 +569,41 @@
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="164.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="63.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="75.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="110.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="164.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="110.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,85 +617,100 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="Y1" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -676,80 +723,93 @@
       <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="X2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AD2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-6220\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,149 +24,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>CNIC_C</t>
-  </si>
-  <si>
-    <t>credit_card_no</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
     <t>Login_id</t>
   </si>
   <si>
     <t>scroll_text</t>
   </si>
   <si>
-    <t>When I am verifying Credit Sign up process 4220106968337</t>
-  </si>
-  <si>
-    <t>4220106968337</t>
-  </si>
-  <si>
-    <t>4902870003792964</t>
-  </si>
-  <si>
     <t>usman.safder@hbl.com</t>
   </si>
   <si>
-    <t>abbyabby124</t>
-  </si>
-  <si>
     <t>pakistan1</t>
   </si>
   <si>
-    <t>password_query</t>
-  </si>
-  <si>
     <t xml:space="preserve">13.6 </t>
   </si>
   <si>
     <t>customer_type_query</t>
   </si>
   <si>
-    <t>select P.CUSTOMER_TYPE from dc_customer_info P where P.CNIC ='4220106968337'</t>
-  </si>
-  <si>
-    <t>new_password</t>
-  </si>
-  <si>
     <t>success_message</t>
   </si>
   <si>
-    <t>account_query</t>
-  </si>
-  <si>
     <t>feedback_option</t>
   </si>
   <si>
-    <t>password_change_req_query</t>
-  </si>
-  <si>
     <t>transaction_password_query</t>
   </si>
   <si>
-    <t>Your Login password and Transaction password have been changed.Please login with new password</t>
-  </si>
-  <si>
-    <t>select ACCOUNT_NO  from dc_customer_account k where K.CUSTOMER_INFO_ID= ( Select customer_info_id from dc_customer_info i where I.CNIC='{customer_cnic}') AND K.IS_ACCOUNT_LINK='1'</t>
-  </si>
-  <si>
-    <t>select IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
     <t>select TRANSACTION_PASSWORD from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
     <t>pakistan2</t>
   </si>
   <si>
-    <t>activation_password</t>
-  </si>
-  <si>
-    <t>success_message1</t>
-  </si>
-  <si>
-    <t>success_message2</t>
-  </si>
-  <si>
-    <t>success_message3</t>
-  </si>
-  <si>
-    <t>You have registered successfully!</t>
-  </si>
-  <si>
-    <t>Your transaction has been processed successfully</t>
-  </si>
-  <si>
-    <t>Please note that you can use the same credentials to login on HBL Mobile.</t>
-  </si>
-  <si>
-    <t>Begin update dc_customer_info p set P.LOGIN_PASSWORD='$2a$10$fZ3EqVq2W9QWb2silU6sVuDUr.2XrXNSHjU98hOuQsCE/Dr1oN6cy' where P.CNIC='{customer_cnic}';COMMIT;END;</t>
-  </si>
-  <si>
     <t>select CUSTOMER_NAME from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
     <t>feedback_type</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>login_id_query</t>
   </si>
   <si>
-    <t>CNIC</t>
-  </si>
-  <si>
-    <t>Credit Card Number</t>
-  </si>
-  <si>
-    <t>Email Address Registered with HBL</t>
-  </si>
-  <si>
-    <t>credit_req_text1</t>
-  </si>
-  <si>
-    <t>credit_req_text3</t>
-  </si>
-  <si>
-    <t>credit_req_text2</t>
-  </si>
-  <si>
-    <t>dvl_query</t>
-  </si>
-  <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL C where C.PARAMETER_NAME='GET_DATA_FROM_DVL'</t>
-  </si>
-  <si>
     <t>IVR_require_query</t>
   </si>
   <si>
@@ -218,16 +122,64 @@
     <t>Select Z.ENABLE_PSD from dc_customer_info Z where Z.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
-    <t>dob</t>
-  </si>
-  <si>
     <t>password_policy_query</t>
   </si>
   <si>
-    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_PSWD_POLICY_DESC'</t>
-  </si>
-  <si>
     <t>Last_login_query</t>
+  </si>
+  <si>
+    <t>CNIC_D</t>
+  </si>
+  <si>
+    <t>Credit_card_no</t>
+  </si>
+  <si>
+    <t>Customer_Email</t>
+  </si>
+  <si>
+    <t>OTP_Value</t>
+  </si>
+  <si>
+    <t>login_pass</t>
+  </si>
+  <si>
+    <t>tran_pass</t>
+  </si>
+  <si>
+    <t>tran_pass_encrypted_value</t>
+  </si>
+  <si>
+    <t>3520229025957</t>
+  </si>
+  <si>
+    <t>4902870005771602</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI99</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Select PARAMTER_VALUE from DC_APPLICATION_PARAM_DETAIL P where P.PARAMETER_NAME ='LOGIN_AND_T_PWRD_DESC_BEFORE_LOGIN'</t>
+  </si>
+  <si>
+    <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
+  </si>
+  <si>
+    <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
+  </si>
+  <si>
+    <t>select P.CUSTOMER_TYPE from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>HBL Staff</t>
+  </si>
+  <si>
+    <t>681168</t>
+  </si>
+  <si>
+    <t>When I am verifying Credit Sign up process mojizabidi99</t>
   </si>
 </sst>
 </file>
@@ -243,12 +195,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -268,20 +218,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -557,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,251 +527,194 @@
     <col min="1" max="1" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="164.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="91.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="177.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="93.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="75.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="31" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="32.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="110.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>22</v>
+      <c r="K2" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="Y2" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AB2" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J8:J12">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-8262020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:Z2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Case</t>
   </si>
@@ -35,9 +35,6 @@
     <t>scroll_text</t>
   </si>
   <si>
-    <t>usman.safder@hbl.com</t>
-  </si>
-  <si>
     <t>pakistan1</t>
   </si>
   <si>
@@ -53,12 +50,6 @@
     <t>feedback_option</t>
   </si>
   <si>
-    <t>transaction_password_query</t>
-  </si>
-  <si>
-    <t>select TRANSACTION_PASSWORD from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
     <t>pakistan2</t>
   </si>
   <si>
@@ -149,15 +140,6 @@
     <t>tran_pass_encrypted_value</t>
   </si>
   <si>
-    <t>3520229025957</t>
-  </si>
-  <si>
-    <t>4902870005771602</t>
-  </si>
-  <si>
-    <t>MOJIZABIDI99</t>
-  </si>
-  <si>
     <t>12345678</t>
   </si>
   <si>
@@ -180,13 +162,64 @@
   </si>
   <si>
     <t>When I am verifying Credit Sign up process mojizabidi99</t>
+  </si>
+  <si>
+    <t>last_pass_change_query</t>
+  </si>
+  <si>
+    <t>last_tran_pass_change_query</t>
+  </si>
+  <si>
+    <t>login_confirm</t>
+  </si>
+  <si>
+    <t>tran_confirm</t>
+  </si>
+  <si>
+    <t>select P.LAST_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>select P.LAST_TRANS_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>is_password_change_required_value</t>
+  </si>
+  <si>
+    <t>is_password_change_required_query</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_value</t>
+  </si>
+  <si>
+    <t>is_password_reset_required_query</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_CHANGED_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>SELECT P.IS_PASSWORD_RESET_REQUIRED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>1730111412953</t>
+  </si>
+  <si>
+    <t>4902880001916740</t>
+  </si>
+  <si>
+    <t>aliwaqarazeem@hotmail.com</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI100</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +232,14 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -218,15 +259,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -516,53 +560,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL8" sqref="AL8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="75.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="115.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="130.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="76" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="18" max="18" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -571,144 +624,186 @@
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -719,5 +814,6 @@
     <hyperlink ref="D2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>Case</t>
   </si>
@@ -206,13 +206,25 @@
     <t>1730111412953</t>
   </si>
   <si>
-    <t>4902880001916740</t>
-  </si>
-  <si>
     <t>aliwaqarazeem@hotmail.com</t>
   </si>
   <si>
-    <t>MOJIZABIDI100</t>
+    <t>4902880001916747</t>
+  </si>
+  <si>
+    <t>USMANSAFDER1</t>
+  </si>
+  <si>
+    <t>OTP_message</t>
+  </si>
+  <si>
+    <t>A one time password has been sent to your mobile number xxxxxxx and/ or email address registered with HBL.</t>
+  </si>
+  <si>
+    <t>mobile_no_query</t>
+  </si>
+  <si>
+    <t>Select K.MOBILE_NO from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
   </si>
 </sst>
 </file>
@@ -560,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="AL8" sqref="AL8"/>
+    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
+      <selection activeCell="AI15" sqref="AI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -572,7 +584,7 @@
     <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="130.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -601,10 +613,12 @@
     <col min="31" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="1"/>
+    <col min="34" max="34" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,8 +718,14 @@
       <c r="AG1" s="1" t="s">
         <v>55</v>
       </c>
+      <c r="AH1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>65</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -713,10 +733,10 @@
         <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>62</v>
@@ -804,6 +824,12 @@
       </c>
       <c r="AG2" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/CreditRegistration.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="123">
   <si>
     <t>Case</t>
   </si>
@@ -149,9 +149,6 @@
     <t>You have successfully set-up your Login and Transaction Passwords. Kindly use your new password to login.</t>
   </si>
   <si>
-    <t>$2a$31$33GicMJLAlIuV0UQKrwtNu/SYwpsYsVkGR4DDNJEN9iSUwWoZtETu</t>
-  </si>
-  <si>
     <t>select P.CUSTOMER_TYPE from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
@@ -161,12 +158,6 @@
     <t>681168</t>
   </si>
   <si>
-    <t>When I am verifying Credit Sign up process mojizabidi99</t>
-  </si>
-  <si>
-    <t>last_pass_change_query</t>
-  </si>
-  <si>
     <t>last_tran_pass_change_query</t>
   </si>
   <si>
@@ -176,9 +167,6 @@
     <t>tran_confirm</t>
   </si>
   <si>
-    <t>select P.LAST_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
-  </si>
-  <si>
     <t>select P.LAST_TRANS_PASSWORD_CHANGED from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
   </si>
   <si>
@@ -212,9 +200,6 @@
     <t>4902880001916747</t>
   </si>
   <si>
-    <t>USMANSAFDER1</t>
-  </si>
-  <si>
     <t>OTP_message</t>
   </si>
   <si>
@@ -225,13 +210,196 @@
   </si>
   <si>
     <t>Select K.MOBILE_NO from DC_CUSTOMER_INFO K where K.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>transaction_password_query</t>
+  </si>
+  <si>
+    <t>1234567891125</t>
+  </si>
+  <si>
+    <t>4902870004884109</t>
+  </si>
+  <si>
+    <t>farooq.leo@hotmail.com</t>
+  </si>
+  <si>
+    <t>MOJIZABIDI99</t>
+  </si>
+  <si>
+    <t>$2a$10$fZ3EqVq2W9QWb2silU6sVuDUr.2XrXNSHjU98hOuQsCE/Dr1oN6cy</t>
+  </si>
+  <si>
+    <t>select TRANSACTION_PASSWORD from dc_customer_info P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>123456789112</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJ</t>
+  </si>
+  <si>
+    <t>3660178807169</t>
+  </si>
+  <si>
+    <t>4902870000000109</t>
+  </si>
+  <si>
+    <t>farooq.leo123@hotmail.com</t>
+  </si>
+  <si>
+    <t>49028700048841</t>
+  </si>
+  <si>
+    <t>ABCDEFGHIJKLMNO</t>
+  </si>
+  <si>
+    <t>15SAD15</t>
+  </si>
+  <si>
+    <t>ASDASD@S</t>
+  </si>
+  <si>
+    <t>15151515</t>
+  </si>
+  <si>
+    <t>CCAUTOMATIONUSER</t>
+  </si>
+  <si>
+    <t>CCAUTOMATIONUSER1</t>
+  </si>
+  <si>
+    <t>To verify error when user enter incorrect CNIC Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify error when user enter incorrect CNIC length 12 Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify Empty CNIC field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter alphabets in CNIC field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect Credit card number Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect Email Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter incorrect Credit card number 14 length Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter alphabets in Credit card number field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify Empty Credit card number field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify Empty Email field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify Empty Login ID field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter less than 8 characters in login ID field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter all 8 alphabets with special characters in login ID field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when user enter all 8 numeric digits in login ID field Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify create password screen when user enter invalid password Credit_Reg</t>
+  </si>
+  <si>
+    <t>To verify when customer is already registered Credit_Reg</t>
+  </si>
+  <si>
+    <t>When I am verifying Credit Sign up process  Credit_Reg</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>db_val</t>
+  </si>
+  <si>
+    <t>DIGITAL_CHANNEL_SEC</t>
+  </si>
+  <si>
+    <t>config_query1</t>
+  </si>
+  <si>
+    <t>config_query2</t>
+  </si>
+  <si>
+    <t>config_query3</t>
+  </si>
+  <si>
+    <t>config_query4</t>
+  </si>
+  <si>
+    <t>config_val1</t>
+  </si>
+  <si>
+    <t>config_val2</t>
+  </si>
+  <si>
+    <t>config_val3</t>
+  </si>
+  <si>
+    <t>config_val4</t>
+  </si>
+  <si>
+    <t>SELECT CONFIG_NAME FROM DC_CUSTOMER_INFO_CONFIG K WHERE K.CONFIG_NAME = 'NRPCUSTOMER' AND K.CUSTOMER_INFO_ID = (SELECT L.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO L where L.CNIC ='{customer_cnic}')</t>
+  </si>
+  <si>
+    <t>SELECT CONFIG_NAME FROM DC_CUSTOMER_INFO_CONFIG K WHERE K.CONFIG_NAME = 'CUSTOMER_NATURE' AND K.CUSTOMER_INFO_ID = (SELECT L.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO L where L.CNIC ='{customer_cnic}')</t>
+  </si>
+  <si>
+    <t>SELECT CONFIG_NAME FROM DC_CUSTOMER_INFO_CONFIG K WHERE K.CONFIG_NAME = 'CUSTOMER_TELCO' AND K.CUSTOMER_INFO_ID = (SELECT L.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO L where L.CNIC ='{customer_cnic}')</t>
+  </si>
+  <si>
+    <t>SELECT CONFIG_NAME FROM DC_CUSTOMER_INFO_CONFIG K WHERE K.CONFIG_NAME = 'FIRST_LOGIN_DATE' AND K.CUSTOMER_INFO_ID = (SELECT L.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO L where L.CNIC ='{customer_cnic}')</t>
+  </si>
+  <si>
+    <t>NRPCUSTOMER</t>
+  </si>
+  <si>
+    <t>CUSTOMER_NATURE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_TELCO</t>
+  </si>
+  <si>
+    <t>FIRST_LOGIN_DATE</t>
+  </si>
+  <si>
+    <t>limit_type_id_query</t>
+  </si>
+  <si>
+    <t>Select P.LIMIT_TYPE_ID FROM DC_CUSTOMER_INFO P where P.CNIC ='{customer_cnic}'</t>
+  </si>
+  <si>
+    <t>feedback_verify</t>
+  </si>
+  <si>
+    <t>Select FEEDBACK from DC_CUSTOMER_REG_FEEDBACK a where A.CUSTOMER_INFO_ID = (Select CUSTOMER_INFO_ID from dc_customer_info j where J.CNIC='{customer_cnic}')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,14 +412,6 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -271,32 +431,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -572,274 +718,2628 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI2"/>
+  <dimension ref="A1:AU18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AI15" sqref="AI15"/>
+    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+      <selection activeCell="AT9" sqref="AT9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="51.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="130.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="85" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="72.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="67.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="77.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="103.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="113" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="73" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="87.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="96" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="83.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="130.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="85" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="76.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="72.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="72.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="70.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="67" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="103.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="76.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="81.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="113" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="73" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="34.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="96" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="92.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="101.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="75.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="21.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="208.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="213" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="211.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="212" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="78.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="158.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS5" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT5" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ6" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL6" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM6" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT6" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU6" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN7" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP7" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ7" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU7" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK8" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL8" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM8" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP8" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ8" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR8" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT8" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU8" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF9" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI9" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL9" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM9" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN9" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP9" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ9" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS9" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT9" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU9" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM10" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR10" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU10" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ11" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU11" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL12" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ12" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR12" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS12" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT12" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU12" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL13" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM13" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN13" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP13" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS13" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT13" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL14" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM14" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ14" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR14" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS14" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT14" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU14" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU15" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL16" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN16" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO16" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP16" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ16" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS16" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU16" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN17" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP17" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR17" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT17" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU17" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="D18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AC18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AG18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AI18" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="AJ18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>66</v>
+      <c r="AK18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AO18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AP18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AR18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AS18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AU18" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="J8:J12">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>